--- a/Admin/DH All user stories with labels.xlsx
+++ b/Admin/DH All user stories with labels.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25516"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="140" windowWidth="22620" windowHeight="23340"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="19440" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="general_report" sheetId="2" r:id="rId1"/>
@@ -355,8 +355,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -945,6 +945,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -969,54 +971,52 @@
     <xf numFmtId="0" fontId="22" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Besuchter Link" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Hinweis" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Link" xfId="42" builtinId="8"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Titel" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1352,50 +1352,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="14"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="6"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.45" customHeight="1">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" ht="13.75" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" ht="13.7" customHeight="1">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" ht="30">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1411,11 +1411,11 @@
       <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="26">
+    <row r="5" spans="1:6" ht="42.75">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1431,11 +1431,11 @@
       <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="39">
+    <row r="6" spans="1:6" ht="42.75">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1451,11 +1451,11 @@
       <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="39">
+    <row r="7" spans="1:6" ht="42.75">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1471,11 +1471,11 @@
       <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="39">
+    <row r="8" spans="1:6" ht="42.75">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1491,11 +1491,11 @@
       <c r="E8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="39">
+    <row r="9" spans="1:6" ht="42.75">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1511,11 +1511,11 @@
       <c r="E9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="26">
+    <row r="10" spans="1:6" ht="42.75">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1531,11 +1531,11 @@
       <c r="E10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="39">
+    <row r="11" spans="1:6" ht="57">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1551,11 +1551,11 @@
       <c r="E11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14">
+    <row r="12" spans="1:6" ht="30">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1571,11 +1571,11 @@
       <c r="E12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="78">
+    <row r="13" spans="1:6" ht="99.75">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1591,11 +1591,11 @@
       <c r="E13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="26">
+    <row r="14" spans="1:6" ht="42.75">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -1611,11 +1611,11 @@
       <c r="E14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="39">
+    <row r="15" spans="1:6" ht="57">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -1631,11 +1631,11 @@
       <c r="E15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="26">
+    <row r="16" spans="1:6" ht="30">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
@@ -1651,11 +1651,11 @@
       <c r="E16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="39">
+    <row r="17" spans="1:6" ht="42.75">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -1671,11 +1671,11 @@
       <c r="E17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="39">
+    <row r="18" spans="1:6" ht="42.75">
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
@@ -1691,11 +1691,11 @@
       <c r="E18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="65">
+    <row r="19" spans="1:6" ht="99.75">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -1711,11 +1711,11 @@
       <c r="E19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="52">
+    <row r="20" spans="1:6" ht="57">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -1731,11 +1731,11 @@
       <c r="E20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="39">
+    <row r="21" spans="1:6" ht="57">
       <c r="A21" s="3" t="s">
         <v>7</v>
       </c>
@@ -1751,11 +1751,11 @@
       <c r="E21" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="26">
+    <row r="22" spans="1:6" ht="42.75">
       <c r="A22" s="3" t="s">
         <v>7</v>
       </c>
@@ -1771,11 +1771,11 @@
       <c r="E22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14">
+    <row r="23" spans="1:6" ht="30">
       <c r="A23" s="3" t="s">
         <v>7</v>
       </c>
@@ -1791,11 +1791,11 @@
       <c r="E23" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="26">
+    <row r="24" spans="1:6" ht="30">
       <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
@@ -1811,11 +1811,11 @@
       <c r="E24" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="39">
+    <row r="25" spans="1:6" ht="42.75">
       <c r="A25" s="3" t="s">
         <v>7</v>
       </c>
@@ -1831,11 +1831,11 @@
       <c r="E25" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="52">
+    <row r="26" spans="1:6" ht="57">
       <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
@@ -1851,11 +1851,11 @@
       <c r="E26" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="65">
+    <row r="27" spans="1:6" ht="71.25">
       <c r="A27" s="3" t="s">
         <v>7</v>
       </c>
@@ -1871,37 +1871,37 @@
       <c r="E27" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14">
+    <row r="28" spans="1:6" ht="15">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:6" ht="14">
+    <row r="29" spans="1:6" ht="15">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:6" ht="14">
+    <row r="30" spans="1:6" ht="15">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:6" ht="8.5" customHeight="1">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
+    <row r="31" spans="1:6" ht="8.4499999999999993" customHeight="1">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
